--- a/1_chain_write/readCsvNWrite106.xlsx
+++ b/1_chain_write/readCsvNWrite106.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="24900" windowHeight="16260"/>
+    <workbookView windowHeight="24060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,10 +16,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -32,14 +32,6 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -47,7 +39,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -61,26 +67,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -88,6 +78,14 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -107,8 +105,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -122,15 +144,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -144,38 +173,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,43 +196,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -244,13 +226,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -262,25 +238,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -292,61 +262,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -364,13 +280,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,17 +428,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -459,173 +468,164 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4452,6 +4452,8 @@
         <c:axId val="817111283"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="80"/>
+          <c:min val="40"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5124,8 +5126,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4338955" y="223281875"/>
-        <a:ext cx="4572000" cy="2895600"/>
+        <a:off x="3840480" y="235341795"/>
+        <a:ext cx="4088130" cy="3058160"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5463,12 +5465,12 @@
   <dimension ref="A2:D1206"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1162" workbookViewId="0">
-      <selection activeCell="D1206" sqref="D1206"/>
+      <selection activeCell="N1207" sqref="N1207"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.94117647058824" defaultRowHeight="14.8" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="7.94166666666667" defaultRowHeight="15.6" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="3" width="12.6470588235294"/>
+    <col min="2" max="3" width="12.65"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4">
